--- a/reference_cs.xlsx
+++ b/reference_cs.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="135" windowWidth="16275" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
